--- a/CashFlow/SPGI_cashflow.xlsx
+++ b/CashFlow/SPGI_cashflow.xlsx
@@ -961,19 +961,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>366000000.0</v>
+        <v>144000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>808000000.0</v>
+        <v>132000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>701000000.0</v>
+        <v>29000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>535000000.0</v>
+        <v>-46000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>437000000.0</v>
+        <v>-17000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>72000000.0</v>
@@ -4057,10 +4057,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>-1148000000.0</v>
